--- a/warehouse_manager/Database/Components.xlsx
+++ b/warehouse_manager/Database/Components.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Slots" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Containers" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Enumerations" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="UnitsOfMeasure" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,6 +36,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -46,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -56,16 +67,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -79,17 +103,135 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <alignment horizontal="center" vertical="top"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -160,6 +302,32 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella2" displayName="Tabella2" ref="A1:F21" headerRowCount="1" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:F21"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Enumeration"/>
+    <tableColumn id="2" name="Slot State"/>
+    <tableColumn id="3" name="Container State"/>
+    <tableColumn id="4" name="Plc State"/>
+    <tableColumn id="5" name="Arrival State"/>
+    <tableColumn id="6" name="Order State"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabella1" displayName="Tabella1" ref="A1:B6" headerRowCount="1" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:B6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Dimension" dataDxfId="1"/>
+    <tableColumn id="2" name="Unit" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,72 +640,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Container</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Aisle</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>targetX</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>targetZ</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Path Weight</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Loads Count</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Items Count</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>Length</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>Width</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>Volume</t>
         </is>
@@ -5154,7 +5322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5163,57 +5331,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Slot</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Loads Count</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Items Count</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Length</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Width</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>Volume</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>Filled</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>Filling</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>Item Types</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>Items</t>
         </is>
@@ -5225,7 +5408,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -5252,7 +5435,20 @@
       <c r="J2" t="n">
         <v>144000</v>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 576}]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -5260,7 +5456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -5287,7 +5483,20 @@
       <c r="J3" t="n">
         <v>144000</v>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 576}]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -5295,7 +5504,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -5322,7 +5531,20 @@
       <c r="J4" t="n">
         <v>144000</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 3}]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -5330,7 +5552,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -5357,7 +5579,20 @@
       <c r="J5" t="n">
         <v>144000</v>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 3}]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -5365,7 +5600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -5392,7 +5627,20 @@
       <c r="J6" t="n">
         <v>144000</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 3}]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -5400,7 +5648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -5427,7 +5675,20 @@
       <c r="J7" t="n">
         <v>144000</v>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 3}]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -5435,7 +5696,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -5462,7 +5723,20 @@
       <c r="J8" t="n">
         <v>144000</v>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 3}]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -5470,7 +5744,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -5497,7 +5771,20 @@
       <c r="J9" t="n">
         <v>144000</v>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 3}]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -5505,7 +5792,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -5532,7 +5819,20 @@
       <c r="J10" t="n">
         <v>144000</v>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 3}]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -5540,7 +5840,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -5567,7 +5867,20 @@
       <c r="J11" t="n">
         <v>144000</v>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 3}]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -5575,7 +5888,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -5602,7 +5915,20 @@
       <c r="J12" t="n">
         <v>288000</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>100</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 6}]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -5610,7 +5936,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -5637,7 +5963,20 @@
       <c r="J13" t="n">
         <v>288000</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>100</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 6}]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -5645,7 +5984,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -5672,7 +6011,20 @@
       <c r="J14" t="n">
         <v>288000</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>100</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 6}]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -5680,7 +6032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -5707,7 +6059,20 @@
       <c r="J15" t="n">
         <v>288000</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>100</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 6}]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -5715,7 +6080,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -5742,7 +6107,20 @@
       <c r="J16" t="n">
         <v>288000</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>100</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 6}]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -5750,7 +6128,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -5777,7 +6155,20 @@
       <c r="J17" t="n">
         <v>288000</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>100</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 6}]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -5785,7 +6176,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -5812,7 +6203,20 @@
       <c r="J18" t="n">
         <v>288000</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>100</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 6}]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -5820,7 +6224,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -5847,7 +6251,20 @@
       <c r="J19" t="n">
         <v>288000</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>100</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 6}]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -5855,7 +6272,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -5882,7 +6299,20 @@
       <c r="J20" t="n">
         <v>288000</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 6}]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -5890,7 +6320,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -5917,7 +6347,20 @@
       <c r="J21" t="n">
         <v>288000</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>100</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 6}]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5925,7 +6368,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -5952,7 +6395,20 @@
       <c r="J22" t="n">
         <v>432000</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>100</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 9}]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5960,7 +6416,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -5987,7 +6443,20 @@
       <c r="J23" t="n">
         <v>432000</v>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>430500</v>
+      </c>
+      <c r="L23" t="n">
+        <v>100</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 4}, {'Name': 'Aromatherapy Diffuser', 'Quantity': 53}]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -5995,7 +6464,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -6022,7 +6491,20 @@
       <c r="J24" t="n">
         <v>432000</v>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>100</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 1728}]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -6030,7 +6512,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -6057,7 +6539,20 @@
       <c r="J25" t="n">
         <v>432000</v>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>100</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 168}, {'Name': 'Essential Oil Set', 'Quantity': 520}]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -6065,7 +6560,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -6092,7 +6587,20 @@
       <c r="J26" t="n">
         <v>432000</v>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>100</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -6100,7 +6608,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -6127,7 +6635,20 @@
       <c r="J27" t="n">
         <v>432000</v>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>100</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -6135,7 +6656,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -6162,7 +6683,20 @@
       <c r="J28" t="n">
         <v>432000</v>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>100</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -6170,7 +6704,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -6197,7 +6731,20 @@
       <c r="J29" t="n">
         <v>432000</v>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>100</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -6205,7 +6752,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -6232,7 +6779,20 @@
       <c r="J30" t="n">
         <v>432000</v>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>100</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -6240,7 +6800,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -6267,7 +6827,20 @@
       <c r="J31" t="n">
         <v>432000</v>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>100</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -6275,7 +6848,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -6302,7 +6875,20 @@
       <c r="J32" t="n">
         <v>144000</v>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 32}]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -6310,7 +6896,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -6337,7 +6923,20 @@
       <c r="J33" t="n">
         <v>144000</v>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>100</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 32}]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -6345,7 +6944,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -6372,7 +6971,20 @@
       <c r="J34" t="n">
         <v>144000</v>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>100</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 32}]</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -6380,7 +6992,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -6407,7 +7019,20 @@
       <c r="J35" t="n">
         <v>144000</v>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>100</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 32}]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -6415,7 +7040,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -6442,7 +7067,20 @@
       <c r="J36" t="n">
         <v>144000</v>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>100</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 32}]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -6450,7 +7088,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -6477,7 +7115,20 @@
       <c r="J37" t="n">
         <v>144000</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 32}]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6485,7 +7136,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -6512,7 +7163,20 @@
       <c r="J38" t="n">
         <v>144000</v>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>100</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 32}]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6520,7 +7184,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -6547,7 +7211,20 @@
       <c r="J39" t="n">
         <v>144000</v>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>100</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 32}]</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6555,7 +7232,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -6582,7 +7259,20 @@
       <c r="J40" t="n">
         <v>144000</v>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>100</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 32}]</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6590,7 +7280,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -6617,7 +7307,20 @@
       <c r="J41" t="n">
         <v>144000</v>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>100</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 32}]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6625,7 +7328,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -6652,7 +7355,20 @@
       <c r="J42" t="n">
         <v>288000</v>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>100</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 64}]</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6660,7 +7376,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -6687,7 +7403,20 @@
       <c r="J43" t="n">
         <v>288000</v>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>100</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 64}]</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6695,7 +7424,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -6722,7 +7451,20 @@
       <c r="J44" t="n">
         <v>288000</v>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>100</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 64}]</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6730,7 +7472,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -6757,7 +7499,20 @@
       <c r="J45" t="n">
         <v>288000</v>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>100</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 64}]</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6765,7 +7520,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -6792,7 +7547,20 @@
       <c r="J46" t="n">
         <v>288000</v>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>100</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 64}]</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6800,7 +7568,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -6827,7 +7595,20 @@
       <c r="J47" t="n">
         <v>288000</v>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L47" t="n">
+        <v>100</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 64}]</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6835,7 +7616,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -6862,7 +7643,20 @@
       <c r="J48" t="n">
         <v>288000</v>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L48" t="n">
+        <v>100</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 64}]</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6870,7 +7664,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -6897,7 +7691,20 @@
       <c r="J49" t="n">
         <v>288000</v>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>100</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 64}]</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6905,7 +7712,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -6932,7 +7739,20 @@
       <c r="J50" t="n">
         <v>288000</v>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>100</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 64}]</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6940,7 +7760,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -6967,7 +7787,20 @@
       <c r="J51" t="n">
         <v>288000</v>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>100</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 64}]</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6975,7 +7808,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -7002,7 +7835,20 @@
       <c r="J52" t="n">
         <v>432000</v>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>429900</v>
+      </c>
+      <c r="L52" t="n">
+        <v>100</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 11}, {'Name': 'Lipstick', 'Quantity': 4200}, {'Name': 'Measuring Tape', 'Quantity': 82}]</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7010,7 +7856,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -7037,7 +7883,20 @@
       <c r="J53" t="n">
         <v>432000</v>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>431952</v>
+      </c>
+      <c r="L53" t="n">
+        <v>100</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Essential Oil Set', 'Quantity': 280}, {'Name': 'Eyeshadow Palette', 'Quantity': 1156}]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7045,7 +7904,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -7072,7 +7931,20 @@
       <c r="J54" t="n">
         <v>432000</v>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>100</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Mascara', 'Quantity': 1600}, {'Name': 'Measuring Tape', 'Quantity': 72}]</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7080,7 +7952,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -7107,7 +7979,20 @@
       <c r="J55" t="n">
         <v>432000</v>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>431148</v>
+      </c>
+      <c r="L55" t="n">
+        <v>100</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 144}, {'Name': 'Screw Assortment Kit', 'Quantity': 269}]</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7115,7 +8000,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -7142,7 +8027,20 @@
       <c r="J56" t="n">
         <v>432000</v>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>100</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 144}]</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7150,7 +8048,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -7177,7 +8075,20 @@
       <c r="J57" t="n">
         <v>432000</v>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>100</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 144}]</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7185,7 +8096,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -7212,7 +8123,20 @@
       <c r="J58" t="n">
         <v>432000</v>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>100</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 144}]</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7220,7 +8144,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -7247,7 +8171,20 @@
       <c r="J59" t="n">
         <v>432000</v>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>100</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 144}]</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7255,7 +8192,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -7282,7 +8219,20 @@
       <c r="J60" t="n">
         <v>432000</v>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>100</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 144}]</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7290,7 +8240,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -7317,7 +8267,20 @@
       <c r="J61" t="n">
         <v>432000</v>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>426000</v>
+      </c>
+      <c r="L61" t="n">
+        <v>99</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 126}, {'Name': 'Toolbox', 'Quantity': 3}]</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7325,7 +8288,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -7352,7 +8315,20 @@
       <c r="J62" t="n">
         <v>144000</v>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L62" t="n">
+        <v>100</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7360,7 +8336,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -7387,7 +8363,20 @@
       <c r="J63" t="n">
         <v>144000</v>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L63" t="n">
+        <v>100</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7395,7 +8384,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -7422,7 +8411,20 @@
       <c r="J64" t="n">
         <v>144000</v>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L64" t="n">
+        <v>100</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7430,7 +8432,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -7457,7 +8459,20 @@
       <c r="J65" t="n">
         <v>144000</v>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>100</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7465,7 +8480,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -7492,7 +8507,20 @@
       <c r="J66" t="n">
         <v>144000</v>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>100</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7500,7 +8528,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -7527,7 +8555,20 @@
       <c r="J67" t="n">
         <v>144000</v>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L67" t="n">
+        <v>100</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -7535,7 +8576,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -7562,7 +8603,20 @@
       <c r="J68" t="n">
         <v>144000</v>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>100</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -7570,7 +8624,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -7597,7 +8651,20 @@
       <c r="J69" t="n">
         <v>144000</v>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L69" t="n">
+        <v>100</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -7605,7 +8672,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -7632,7 +8699,20 @@
       <c r="J70" t="n">
         <v>144000</v>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L70" t="n">
+        <v>100</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7640,7 +8720,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -7667,7 +8747,20 @@
       <c r="J71" t="n">
         <v>144000</v>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>144000</v>
+      </c>
+      <c r="L71" t="n">
+        <v>100</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 96}]</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -7675,7 +8768,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -7702,7 +8795,20 @@
       <c r="J72" t="n">
         <v>288000</v>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L72" t="n">
+        <v>100</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 192}]</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -7710,7 +8816,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -7737,7 +8843,20 @@
       <c r="J73" t="n">
         <v>288000</v>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L73" t="n">
+        <v>100</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 179}, {'Name': 'Hammer', 'Quantity': 13}]</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -7745,7 +8864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -7772,7 +8891,20 @@
       <c r="J74" t="n">
         <v>288000</v>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L74" t="n">
+        <v>100</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 18}]</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -7780,7 +8912,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -7807,7 +8939,20 @@
       <c r="J75" t="n">
         <v>288000</v>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L75" t="n">
+        <v>100</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 18}]</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -7815,7 +8960,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -7842,7 +8987,20 @@
       <c r="J76" t="n">
         <v>288000</v>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L76" t="n">
+        <v>100</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 18}]</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -7850,7 +9008,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -7877,7 +9035,20 @@
       <c r="J77" t="n">
         <v>288000</v>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L77" t="n">
+        <v>100</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 18}]</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -7885,7 +9056,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -7912,7 +9083,20 @@
       <c r="J78" t="n">
         <v>288000</v>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L78" t="n">
+        <v>100</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 18}]</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -7920,7 +9104,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -7947,7 +9131,20 @@
       <c r="J79" t="n">
         <v>288000</v>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L79" t="n">
+        <v>100</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 18}]</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7955,7 +9152,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -7982,7 +9179,20 @@
       <c r="J80" t="n">
         <v>288000</v>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L80" t="n">
+        <v>100</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 18}]</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7990,7 +9200,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -8017,7 +9227,20 @@
       <c r="J81" t="n">
         <v>288000</v>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>288000</v>
+      </c>
+      <c r="L81" t="n">
+        <v>100</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 18}]</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -8025,7 +9248,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -8052,7 +9275,20 @@
       <c r="J82" t="n">
         <v>432000</v>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L82" t="n">
+        <v>100</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 27}]</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -8060,7 +9296,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -8087,7 +9323,20 @@
       <c r="J83" t="n">
         <v>432000</v>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L83" t="n">
+        <v>100</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 27}]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -8095,7 +9344,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -8122,7 +9371,20 @@
       <c r="J84" t="n">
         <v>432000</v>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L84" t="n">
+        <v>100</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 27}]</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -8130,7 +9392,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -8157,7 +9419,20 @@
       <c r="J85" t="n">
         <v>432000</v>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L85" t="n">
+        <v>100</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 27}]</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -8165,7 +9440,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -8192,7 +9467,20 @@
       <c r="J86" t="n">
         <v>432000</v>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L86" t="n">
+        <v>100</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 27}]</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -8200,7 +9488,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -8227,7 +9515,20 @@
       <c r="J87" t="n">
         <v>432000</v>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L87" t="n">
+        <v>100</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 27}]</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -8235,7 +9536,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -8262,7 +9563,20 @@
       <c r="J88" t="n">
         <v>432000</v>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L88" t="n">
+        <v>100</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 27}]</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -8270,7 +9584,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -8297,7 +9611,20 @@
       <c r="J89" t="n">
         <v>432000</v>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L89" t="n">
+        <v>100</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 27}]</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -8305,7 +9632,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -8332,7 +9659,20 @@
       <c r="J90" t="n">
         <v>432000</v>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>432000</v>
+      </c>
+      <c r="L90" t="n">
+        <v>100</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 27}]</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -8340,7 +9680,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -8367,7 +9707,20 @@
       <c r="J91" t="n">
         <v>432000</v>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>431250</v>
+      </c>
+      <c r="L91" t="n">
+        <v>100</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Toolbox', 'Quantity': 10}, {'Name': 'Power Drill', 'Quantity': 31}]</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -8375,7 +9728,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -8402,7 +9755,20 @@
       <c r="J92" t="n">
         <v>864000</v>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>864000</v>
+      </c>
+      <c r="L92" t="n">
+        <v>100</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Hammer', 'Quantity': 576}]</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -8410,7 +9776,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -8437,7 +9803,20 @@
       <c r="J93" t="n">
         <v>864000</v>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>864000</v>
+      </c>
+      <c r="L93" t="n">
+        <v>100</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Hammer', 'Quantity': 211}, {'Name': 'Paint Brush Set', 'Quantity': 438}]</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -8445,7 +9824,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -8472,7 +9851,20 @@
       <c r="J94" t="n">
         <v>864000</v>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>857500</v>
+      </c>
+      <c r="L94" t="n">
+        <v>100</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Power Drill', 'Quantity': 98}]</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -8480,7 +9872,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -8507,7 +9899,20 @@
       <c r="J95" t="n">
         <v>864000</v>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>857500</v>
+      </c>
+      <c r="L95" t="n">
+        <v>100</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Power Drill', 'Quantity': 98}]</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -8515,7 +9920,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -8542,7 +9947,20 @@
       <c r="J96" t="n">
         <v>864000</v>
       </c>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>857500</v>
+      </c>
+      <c r="L96" t="n">
+        <v>100</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Power Drill', 'Quantity': 98}]</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -8550,7 +9968,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -8577,7 +9995,20 @@
       <c r="J97" t="n">
         <v>864000</v>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>863994</v>
+      </c>
+      <c r="L97" t="n">
+        <v>100</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Power Drill', 'Quantity': 75}, {'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Eyeshadow Palette', 'Quantity': 732}]</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -8585,7 +10016,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -8612,7 +10043,20 @@
       <c r="J98" t="n">
         <v>864000</v>
       </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>860656</v>
+      </c>
+      <c r="L98" t="n">
+        <v>100</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Paint Brush Set', 'Quantity': 62}, {'Name': 'Eyeshadow Palette', 'Quantity': 568}, {'Name': 'USB Flash Drive', 'Quantity': 1800}, {'Name': 'Wall Clock', 'Quantity': 145}]</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -8620,7 +10064,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -8647,7 +10091,20 @@
       <c r="J99" t="n">
         <v>864000</v>
       </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>864000</v>
+      </c>
+      <c r="L99" t="n">
+        <v>100</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Mascara', 'Quantity': 1600}, {'Name': 'Coffee Mug', 'Quantity': 675}]</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -8655,7 +10112,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -8682,7 +10139,20 @@
       <c r="J100" t="n">
         <v>864000</v>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>840000</v>
+      </c>
+      <c r="L100" t="n">
+        <v>98</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Bath Towels', 'Quantity': 28}]</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -8690,7 +10160,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Loading</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -8717,7 +10187,20 @@
       <c r="J101" t="n">
         <v>864000</v>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>840000</v>
+      </c>
+      <c r="L101" t="n">
+        <v>98</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Bath Towels', 'Quantity': 28}]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8725,7 +10208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8733,282 +10216,384 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="14.109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.21875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.44140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Enumeration</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Slot State</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Container State</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Plc State</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Arrival State</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Order State</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Placed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Stored</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NewCommand</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Booked</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Arrived</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Loading</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Loading</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dispatching</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fulfilling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Unloading</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Unloading</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OutOfService</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Retired</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cancelled</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mantainence</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NotFound</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mantainence</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="11.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="15.109375" customWidth="1" min="2" max="2"/>
-    <col width="13.77734375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13.21875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="10.88671875" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="12.109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="6.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Enumeration</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Slot State</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Container State</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Plc State</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Arrival State</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Order State</t>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Dimension</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Unit</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ready</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Scheduled</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Placed</t>
+          <t>mm</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Width</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Occupied</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Stored</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NewCommand</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Dispatched</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Delivered</t>
+          <t>mm</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Booked</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Arrived</t>
+          <t>mm</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cm3</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Loading</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Loading</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Dispatching</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Fulfilling</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Unloading</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Unloading</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>OutOfService</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Retired</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cancelled</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Cancelled</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Mantainence</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>NotFound</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Mantainence</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="1200" verticalDpi="1200"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>